--- a/ActiTime-Automation/TestScriptDataFiles/CreateUser.xlsx
+++ b/ActiTime-Automation/TestScriptDataFiles/CreateUser.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ExampleAutomation1\Automation\ActiTime-Automation\TestScriptDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CurrentWorkSpace\ExampleAutomation\ActiTime-Automation\TestScriptDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TC02" sheetId="1" r:id="rId1"/>
+    <sheet name="testdata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>TestScriptID</t>
   </si>
@@ -101,10 +102,94 @@
     <t>com.sgtesting.actitime.tests.Users</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UserUsername</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>UserRetypePassword</t>
+  </si>
+  <si>
+    <t>DeleteUser</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>TestUser1</t>
+  </si>
+  <si>
+    <t>Welcome1a</t>
+  </si>
+  <si>
+    <t>User1, Test</t>
+  </si>
+  <si>
+    <t>http://localhost/login.do</t>
+  </si>
+  <si>
+    <t>TestDataColumn</t>
+  </si>
+  <si>
+    <t>Username,Password</t>
+  </si>
+  <si>
+    <t>FirstName,LastName,Email,UserUsername,UserPassword,UserRetypePassword</t>
+  </si>
+  <si>
+    <t>ExpectedResultColumn</t>
+  </si>
+  <si>
+    <t>ObjectMapColumn</t>
+  </si>
+  <si>
+    <t>logintitle</t>
+  </si>
+  <si>
+    <t>homepagetext</t>
+  </si>
+  <si>
+    <t>txtloginusername,txtloginpassword,btnloginbutton</t>
+  </si>
+  <si>
+    <t>lnkhomelogout</t>
+  </si>
+  <si>
     <t>TS07</t>
   </si>
   <si>
-    <t>Minimize the FlyOut Window</t>
+    <t>Minimize The Flyout Window</t>
   </si>
   <si>
     <t>minimizeFlyOutWindow</t>
@@ -116,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +214,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,15 +259,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,19 +558,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +588,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -492,8 +611,15 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -506,22 +632,34 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -534,8 +672,13 @@
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -548,8 +691,13 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -562,10 +710,17 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -576,8 +731,107 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>